--- a/jpcore-r4/feature/v1.1.2_リハーサル/StructureDefinition-jp-coverage.xlsx
+++ b/jpcore-r4/feature/v1.1.2_リハーサル/StructureDefinition-jp-coverage.xlsx
@@ -1111,7 +1111,7 @@
   </si>
   <si>
     <t>Needed to identify the category associated with the amount for the patient.
-患者の金額に関連するカテゴリーを特定する必要がありました。</t>
+患者の金額に関連するカテゴリーを特定する必要があった。</t>
   </si>
   <si>
     <t>患者の自己負担が指定されているサービスの種類。 / The types of services to which patient copayments are specified.</t>
@@ -1327,7 +1327,7 @@
   </si>
   <si>
     <t>Needed to identify the amount for the patient associated with the category.
-カテゴリーに関連する患者の支払い金額を特定する必要がありました。</t>
+カテゴリーに関連する患者の支払い金額を特定する必要があった</t>
   </si>
   <si>
     <t>Coverage.costToBeneficiary.exception</t>
